--- a/ktbwos/2조_테이블명세서.xlsx
+++ b/ktbwos/2조_테이블명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljy\web\ktbwos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="9360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="9135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">y : </t>
         </r>
@@ -335,7 +334,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">n : </t>
         </r>
@@ -503,7 +501,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -524,7 +521,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -545,7 +541,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -566,7 +561,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -588,7 +582,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -609,7 +602,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -630,7 +622,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -651,7 +642,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -672,7 +662,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1129,7 +1118,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">y : </t>
         </r>
@@ -1151,7 +1139,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">n : </t>
         </r>
@@ -1326,212 +1313,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>비회원일</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>비밀번호</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>입력하게</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>함
-비밀번호가</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있어야</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>비회원도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>글</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수정이</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">y : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">n : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미완</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1378,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">완료
+          <t xml:space="preserve">게시
 </t>
         </r>
         <r>
@@ -1572,7 +1399,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>미완</t>
+          <t>미게시</t>
         </r>
       </text>
     </comment>
@@ -1778,53 +1605,6 @@
             <charset val="129"/>
           </rPr>
           <t>가능</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">y : </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">게시
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">n : </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>미게시</t>
         </r>
       </text>
     </comment>
@@ -2081,7 +1861,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="182">
   <si>
     <t>rl_writer</t>
   </si>
@@ -2101,6 +1881,9 @@
     <t>nl_isview</t>
   </si>
   <si>
+    <t>rl_title</t>
+  </si>
+  <si>
     <t>pl_data2</t>
   </si>
   <si>
@@ -2176,6 +1959,9 @@
     <t>varchar(15)</t>
   </si>
   <si>
+    <t>fl_reply</t>
+  </si>
+  <si>
     <t>fr_isview</t>
   </si>
   <si>
@@ -2435,6 +2221,9 @@
   </si>
   <si>
     <t>미승인사유</t>
+  </si>
+  <si>
+    <t>rl_ctgr</t>
   </si>
   <si>
     <t>t_free_list : 자유게시판</t>
@@ -2555,19 +2344,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>rl_ctgr</t>
+    <t>()_idx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>rl_title</t>
+    <t>()_ctgr</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fl_reply</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>nn</t>
+    <t>rl_idx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2582,31 +2367,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-      </rPr>
-      <t>_writer</t>
+      <t>k</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fl_idx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>()_ctgr</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>()_idx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>()_ismem</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2644,30 +2409,6 @@
   </si>
   <si>
     <t>()_date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-      </rPr>
-      <t>_pw</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2689,6 +2430,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_idx</t>
     </r>
@@ -2703,9 +2446,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_writer</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2717,6 +2466,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_pw</t>
     </r>
@@ -2741,6 +2492,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_content</t>
     </r>
@@ -2765,6 +2518,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_ip</t>
     </r>
@@ -2789,6 +2544,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_isview</t>
     </r>
@@ -2813,33 +2570,11 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_date</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>()_idx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rl_idx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3277,7 +3012,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3285,100 +3020,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -3429,16 +3164,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3447,155 +3182,155 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3634,8 +3369,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3663,25 +3398,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="K1" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="P1" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -3689,149 +3424,149 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>94</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S4" t="s">
         <v>2</v>
@@ -3839,52 +3574,52 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="S5" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>136</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="S5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -3892,99 +3627,99 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="R6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" t="s">
         <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3992,380 +3727,380 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F9" s="13" t="s">
-        <v>159</v>
+      <c r="F9" t="s">
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="P17" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -4373,412 +4108,403 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>161</v>
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>160</v>
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="s">
-        <v>110</v>
-      </c>
       <c r="L19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>162</v>
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="Q20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>19</v>
-      </c>
       <c r="R21" s="13" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>121</v>
+        <v>55</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4786,86 +4512,87 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,7 +4630,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>